--- a/para7magic/MP計算.xlsx
+++ b/para7magic/MP計算.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minst\AppData\Roaming\.minecraft\saves\datapack build\datapacks\para7magic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5320515-18AC-4747-9B34-FC2C31C4401A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5C8AC3-7E3C-4C2B-950C-5D6F513A89D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15150" yWindow="1810" windowWidth="21560" windowHeight="17470" xr2:uid="{631C71D2-21D8-4389-AA15-ADA0AEE1C725}"/>
+    <workbookView xWindow="2070" yWindow="130" windowWidth="35180" windowHeight="20530" xr2:uid="{631C71D2-21D8-4389-AA15-ADA0AEE1C725}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,12 +105,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -153,7 +147,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -167,9 +161,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -488,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D80E6F-08BF-44DD-B377-68B41F19CE3F}">
   <dimension ref="A1:BG53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="Y32" sqref="Y32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -553,7 +544,7 @@
       <c r="R1">
         <v>15</v>
       </c>
-      <c r="S1" s="5">
+      <c r="S1" s="4">
         <v>16</v>
       </c>
       <c r="T1">
@@ -724,7 +715,7 @@
         <f>ROUNDDOWN(($A2*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B2)</f>
         <v>20</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="4">
         <f>ROUNDDOWN(($A2*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B2)</f>
         <v>20</v>
       </c>
@@ -748,7 +739,7 @@
         <f>ROUNDDOWN(($A2*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B2)</f>
         <v>20</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="4">
         <f>ROUNDDOWN(($A2*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B2)</f>
         <v>20</v>
       </c>
@@ -764,7 +755,7 @@
         <f>ROUNDDOWN(($A2*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B2)</f>
         <v>20</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="4">
         <f>ROUNDDOWN(($A2*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B2)</f>
         <v>20</v>
       </c>
@@ -804,7 +795,7 @@
         <f>ROUNDDOWN(($A2*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B2)</f>
         <v>20</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="4">
         <f>ROUNDDOWN(($A2*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B2)</f>
         <v>20</v>
       </c>
@@ -953,7 +944,7 @@
         <f>ROUNDDOWN(($A3*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B3)</f>
         <v>21</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="4">
         <f>ROUNDDOWN(($A3*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B3)</f>
         <v>21</v>
       </c>
@@ -977,7 +968,7 @@
         <f>ROUNDDOWN(($A3*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B3)</f>
         <v>20</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="4">
         <f>ROUNDDOWN(($A3*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B3)</f>
         <v>20</v>
       </c>
@@ -993,7 +984,7 @@
         <f>ROUNDDOWN(($A3*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B3)</f>
         <v>20</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="4">
         <f>ROUNDDOWN(($A3*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B3)</f>
         <v>20</v>
       </c>
@@ -1033,7 +1024,7 @@
         <f>ROUNDDOWN(($A3*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B3)</f>
         <v>20</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="4">
         <f>ROUNDDOWN(($A3*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B3)</f>
         <v>20</v>
       </c>
@@ -1182,7 +1173,7 @@
         <f>ROUNDDOWN(($A4*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B4)</f>
         <v>22</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="4">
         <f>ROUNDDOWN(($A4*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B4)</f>
         <v>22</v>
       </c>
@@ -1206,7 +1197,7 @@
         <f>ROUNDDOWN(($A4*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B4)</f>
         <v>21</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="4">
         <f>ROUNDDOWN(($A4*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B4)</f>
         <v>21</v>
       </c>
@@ -1222,7 +1213,7 @@
         <f>ROUNDDOWN(($A4*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B4)</f>
         <v>21</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="4">
         <f>ROUNDDOWN(($A4*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B4)</f>
         <v>20</v>
       </c>
@@ -1262,7 +1253,7 @@
         <f>ROUNDDOWN(($A4*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B4)</f>
         <v>20</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="4">
         <f>ROUNDDOWN(($A4*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B4)</f>
         <v>20</v>
       </c>
@@ -1411,7 +1402,7 @@
         <f>ROUNDDOWN(($A5*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B5)</f>
         <v>23</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="4">
         <f>ROUNDDOWN(($A5*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B5)</f>
         <v>23</v>
       </c>
@@ -1435,7 +1426,7 @@
         <f>ROUNDDOWN(($A5*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B5)</f>
         <v>22</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="4">
         <f>ROUNDDOWN(($A5*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B5)</f>
         <v>21</v>
       </c>
@@ -1451,7 +1442,7 @@
         <f>ROUNDDOWN(($A5*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B5)</f>
         <v>21</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="4">
         <f>ROUNDDOWN(($A5*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B5)</f>
         <v>21</v>
       </c>
@@ -1491,7 +1482,7 @@
         <f>ROUNDDOWN(($A5*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B5)</f>
         <v>20</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="4">
         <f>ROUNDDOWN(($A5*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B5)</f>
         <v>20</v>
       </c>
@@ -1640,7 +1631,7 @@
         <f>ROUNDDOWN(($A6*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B6)</f>
         <v>25</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="4">
         <f>ROUNDDOWN(($A6*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B6)</f>
         <v>24</v>
       </c>
@@ -1664,7 +1655,7 @@
         <f>ROUNDDOWN(($A6*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B6)</f>
         <v>22</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="4">
         <f>ROUNDDOWN(($A6*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B6)</f>
         <v>22</v>
       </c>
@@ -1680,7 +1671,7 @@
         <f>ROUNDDOWN(($A6*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B6)</f>
         <v>22</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="4">
         <f>ROUNDDOWN(($A6*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B6)</f>
         <v>21</v>
       </c>
@@ -1720,7 +1711,7 @@
         <f>ROUNDDOWN(($A6*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B6)</f>
         <v>20</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="4">
         <f>ROUNDDOWN(($A6*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B6)</f>
         <v>20</v>
       </c>
@@ -1872,7 +1863,7 @@
         <f>ROUNDDOWN(($A7*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B7)</f>
         <v>31</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="4">
         <f>ROUNDDOWN(($A7*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B7)</f>
         <v>30</v>
       </c>
@@ -1896,7 +1887,7 @@
         <f>ROUNDDOWN(($A7*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B7)</f>
         <v>28</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="4">
         <f>ROUNDDOWN(($A7*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B7)</f>
         <v>28</v>
       </c>
@@ -1912,7 +1903,7 @@
         <f>ROUNDDOWN(($A7*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B7)</f>
         <v>27</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="4">
         <f>ROUNDDOWN(($A7*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B7)</f>
         <v>27</v>
       </c>
@@ -1952,7 +1943,7 @@
         <f>ROUNDDOWN(($A7*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B7)</f>
         <v>26</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="4">
         <f>ROUNDDOWN(($A7*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B7)</f>
         <v>26</v>
       </c>
@@ -2101,7 +2092,7 @@
         <f>ROUNDDOWN(($A8*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B8)</f>
         <v>32</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="4">
         <f>ROUNDDOWN(($A8*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B8)</f>
         <v>32</v>
       </c>
@@ -2125,7 +2116,7 @@
         <f>ROUNDDOWN(($A8*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B8)</f>
         <v>29</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="4">
         <f>ROUNDDOWN(($A8*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B8)</f>
         <v>28</v>
       </c>
@@ -2141,7 +2132,7 @@
         <f>ROUNDDOWN(($A8*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B8)</f>
         <v>28</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="4">
         <f>ROUNDDOWN(($A8*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B8)</f>
         <v>27</v>
       </c>
@@ -2181,7 +2172,7 @@
         <f>ROUNDDOWN(($A8*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B8)</f>
         <v>26</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="4">
         <f>ROUNDDOWN(($A8*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B8)</f>
         <v>26</v>
       </c>
@@ -2330,7 +2321,7 @@
         <f>ROUNDDOWN(($A9*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B9)</f>
         <v>34</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="4">
         <f>ROUNDDOWN(($A9*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B9)</f>
         <v>33</v>
       </c>
@@ -2354,7 +2345,7 @@
         <f>ROUNDDOWN(($A9*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B9)</f>
         <v>30</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="4">
         <f>ROUNDDOWN(($A9*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B9)</f>
         <v>29</v>
       </c>
@@ -2370,7 +2361,7 @@
         <f>ROUNDDOWN(($A9*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B9)</f>
         <v>28</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="4">
         <f>ROUNDDOWN(($A9*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B9)</f>
         <v>28</v>
       </c>
@@ -2410,7 +2401,7 @@
         <f>ROUNDDOWN(($A9*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B9)</f>
         <v>26</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" s="4">
         <f>ROUNDDOWN(($A9*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B9)</f>
         <v>26</v>
       </c>
@@ -2559,7 +2550,7 @@
         <f>ROUNDDOWN(($A10*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B10)</f>
         <v>35</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="4">
         <f>ROUNDDOWN(($A10*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B10)</f>
         <v>34</v>
       </c>
@@ -2583,7 +2574,7 @@
         <f>ROUNDDOWN(($A10*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B10)</f>
         <v>30</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="4">
         <f>ROUNDDOWN(($A10*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B10)</f>
         <v>30</v>
       </c>
@@ -2599,7 +2590,7 @@
         <f>ROUNDDOWN(($A10*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B10)</f>
         <v>29</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="4">
         <f>ROUNDDOWN(($A10*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B10)</f>
         <v>28</v>
       </c>
@@ -2639,7 +2630,7 @@
         <f>ROUNDDOWN(($A10*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B10)</f>
         <v>26</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="4">
         <f>ROUNDDOWN(($A10*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B10)</f>
         <v>26</v>
       </c>
@@ -2788,7 +2779,7 @@
         <f>ROUNDDOWN(($A11*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B11)</f>
         <v>36</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="4">
         <f>ROUNDDOWN(($A11*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B11)</f>
         <v>35</v>
       </c>
@@ -2812,7 +2803,7 @@
         <f>ROUNDDOWN(($A11*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B11)</f>
         <v>31</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="4">
         <f>ROUNDDOWN(($A11*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B11)</f>
         <v>30</v>
       </c>
@@ -2828,7 +2819,7 @@
         <f>ROUNDDOWN(($A11*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B11)</f>
         <v>29</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="4">
         <f>ROUNDDOWN(($A11*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B11)</f>
         <v>29</v>
       </c>
@@ -2868,7 +2859,7 @@
         <f>ROUNDDOWN(($A11*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B11)</f>
         <v>27</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="4">
         <f>ROUNDDOWN(($A11*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B11)</f>
         <v>27</v>
       </c>
@@ -3020,7 +3011,7 @@
         <f>ROUNDDOWN(($A12*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B12)</f>
         <v>47</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="4">
         <f>ROUNDDOWN(($A12*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B12)</f>
         <v>46</v>
       </c>
@@ -3044,7 +3035,7 @@
         <f>ROUNDDOWN(($A12*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B12)</f>
         <v>42</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="4">
         <f>ROUNDDOWN(($A12*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B12)</f>
         <v>41</v>
       </c>
@@ -3060,7 +3051,7 @@
         <f>ROUNDDOWN(($A12*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B12)</f>
         <v>40</v>
       </c>
-      <c r="W12" s="1">
+      <c r="W12" s="4">
         <f>ROUNDDOWN(($A12*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B12)</f>
         <v>39</v>
       </c>
@@ -3100,7 +3091,7 @@
         <f>ROUNDDOWN(($A12*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B12)</f>
         <v>37</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AG12" s="4">
         <f>ROUNDDOWN(($A12*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B12)</f>
         <v>37</v>
       </c>
@@ -3249,7 +3240,7 @@
         <f>ROUNDDOWN(($A13*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B13)</f>
         <v>49</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="4">
         <f>ROUNDDOWN(($A13*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B13)</f>
         <v>47</v>
       </c>
@@ -3273,7 +3264,7 @@
         <f>ROUNDDOWN(($A13*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B13)</f>
         <v>42</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="4">
         <f>ROUNDDOWN(($A13*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B13)</f>
         <v>42</v>
       </c>
@@ -3289,7 +3280,7 @@
         <f>ROUNDDOWN(($A13*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B13)</f>
         <v>40</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="4">
         <f>ROUNDDOWN(($A13*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B13)</f>
         <v>40</v>
       </c>
@@ -3329,7 +3320,7 @@
         <f>ROUNDDOWN(($A13*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B13)</f>
         <v>37</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" s="4">
         <f>ROUNDDOWN(($A13*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B13)</f>
         <v>37</v>
       </c>
@@ -3478,7 +3469,7 @@
         <f>ROUNDDOWN(($A14*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B14)</f>
         <v>50</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="4">
         <f>ROUNDDOWN(($A14*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B14)</f>
         <v>49</v>
       </c>
@@ -3502,7 +3493,7 @@
         <f>ROUNDDOWN(($A14*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B14)</f>
         <v>43</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="4">
         <f>ROUNDDOWN(($A14*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B14)</f>
         <v>42</v>
       </c>
@@ -3518,7 +3509,7 @@
         <f>ROUNDDOWN(($A14*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B14)</f>
         <v>41</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="4">
         <f>ROUNDDOWN(($A14*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B14)</f>
         <v>40</v>
       </c>
@@ -3558,7 +3549,7 @@
         <f>ROUNDDOWN(($A14*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B14)</f>
         <v>37</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" s="4">
         <f>ROUNDDOWN(($A14*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B14)</f>
         <v>37</v>
       </c>
@@ -3707,7 +3698,7 @@
         <f>ROUNDDOWN(($A15*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B15)</f>
         <v>51</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="4">
         <f>ROUNDDOWN(($A15*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B15)</f>
         <v>50</v>
       </c>
@@ -3731,7 +3722,7 @@
         <f>ROUNDDOWN(($A15*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B15)</f>
         <v>44</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="4">
         <f>ROUNDDOWN(($A15*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B15)</f>
         <v>43</v>
       </c>
@@ -3747,7 +3738,7 @@
         <f>ROUNDDOWN(($A15*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B15)</f>
         <v>41</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="4">
         <f>ROUNDDOWN(($A15*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B15)</f>
         <v>41</v>
       </c>
@@ -3787,7 +3778,7 @@
         <f>ROUNDDOWN(($A15*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B15)</f>
         <v>38</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" s="4">
         <f>ROUNDDOWN(($A15*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B15)</f>
         <v>38</v>
       </c>
@@ -3936,7 +3927,7 @@
         <f>ROUNDDOWN(($A16*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B16)</f>
         <v>53</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="4">
         <f>ROUNDDOWN(($A16*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B16)</f>
         <v>51</v>
       </c>
@@ -3960,7 +3951,7 @@
         <f>ROUNDDOWN(($A16*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B16)</f>
         <v>45</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="4">
         <f>ROUNDDOWN(($A16*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B16)</f>
         <v>44</v>
       </c>
@@ -3976,7 +3967,7 @@
         <f>ROUNDDOWN(($A16*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B16)</f>
         <v>42</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="4">
         <f>ROUNDDOWN(($A16*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B16)</f>
         <v>41</v>
       </c>
@@ -4016,7 +4007,7 @@
         <f>ROUNDDOWN(($A16*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B16)</f>
         <v>38</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" s="4">
         <f>ROUNDDOWN(($A16*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B16)</f>
         <v>38</v>
       </c>
@@ -4168,7 +4159,7 @@
         <f>ROUNDDOWN(($A17*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B17)</f>
         <v>64</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="4">
         <f>ROUNDDOWN(($A17*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B17)</f>
         <v>62</v>
       </c>
@@ -4192,7 +4183,7 @@
         <f>ROUNDDOWN(($A17*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B17)</f>
         <v>55</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="4">
         <f>ROUNDDOWN(($A17*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B17)</f>
         <v>54</v>
       </c>
@@ -4208,7 +4199,7 @@
         <f>ROUNDDOWN(($A17*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B17)</f>
         <v>52</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="4">
         <f>ROUNDDOWN(($A17*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B17)</f>
         <v>52</v>
       </c>
@@ -4248,7 +4239,7 @@
         <f>ROUNDDOWN(($A17*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B17)</f>
         <v>48</v>
       </c>
-      <c r="AG17">
+      <c r="AG17" s="4">
         <f>ROUNDDOWN(($A17*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B17)</f>
         <v>48</v>
       </c>
@@ -4397,7 +4388,7 @@
         <f>ROUNDDOWN(($A18*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B18)</f>
         <v>65</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="4">
         <f>ROUNDDOWN(($A18*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B18)</f>
         <v>63</v>
       </c>
@@ -4421,7 +4412,7 @@
         <f>ROUNDDOWN(($A18*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B18)</f>
         <v>56</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="4">
         <f>ROUNDDOWN(($A18*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B18)</f>
         <v>55</v>
       </c>
@@ -4437,7 +4428,7 @@
         <f>ROUNDDOWN(($A18*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B18)</f>
         <v>53</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="4">
         <f>ROUNDDOWN(($A18*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B18)</f>
         <v>52</v>
       </c>
@@ -4477,7 +4468,7 @@
         <f>ROUNDDOWN(($A18*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B18)</f>
         <v>48</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" s="4">
         <f>ROUNDDOWN(($A18*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B18)</f>
         <v>48</v>
       </c>
@@ -4626,7 +4617,7 @@
         <f>ROUNDDOWN(($A19*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B19)</f>
         <v>66</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="4">
         <f>ROUNDDOWN(($A19*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B19)</f>
         <v>64</v>
       </c>
@@ -4650,7 +4641,7 @@
         <f>ROUNDDOWN(($A19*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B19)</f>
         <v>57</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="4">
         <f>ROUNDDOWN(($A19*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B19)</f>
         <v>56</v>
       </c>
@@ -4666,7 +4657,7 @@
         <f>ROUNDDOWN(($A19*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B19)</f>
         <v>53</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="4">
         <f>ROUNDDOWN(($A19*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B19)</f>
         <v>52</v>
       </c>
@@ -4706,7 +4697,7 @@
         <f>ROUNDDOWN(($A19*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B19)</f>
         <v>49</v>
       </c>
-      <c r="AG19">
+      <c r="AG19" s="4">
         <f>ROUNDDOWN(($A19*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B19)</f>
         <v>48</v>
       </c>
@@ -4855,7 +4846,7 @@
         <f>ROUNDDOWN(($A20*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B20)</f>
         <v>68</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="4">
         <f>ROUNDDOWN(($A20*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B20)</f>
         <v>66</v>
       </c>
@@ -4879,7 +4870,7 @@
         <f>ROUNDDOWN(($A20*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B20)</f>
         <v>57</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="4">
         <f>ROUNDDOWN(($A20*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B20)</f>
         <v>56</v>
       </c>
@@ -4895,7 +4886,7 @@
         <f>ROUNDDOWN(($A20*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B20)</f>
         <v>54</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="4">
         <f>ROUNDDOWN(($A20*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B20)</f>
         <v>53</v>
       </c>
@@ -4935,7 +4926,7 @@
         <f>ROUNDDOWN(($A20*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B20)</f>
         <v>49</v>
       </c>
-      <c r="AG20">
+      <c r="AG20" s="4">
         <f>ROUNDDOWN(($A20*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B20)</f>
         <v>49</v>
       </c>
@@ -5084,7 +5075,7 @@
         <f>ROUNDDOWN(($A21*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B21)</f>
         <v>69</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="4">
         <f>ROUNDDOWN(($A21*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B21)</f>
         <v>67</v>
       </c>
@@ -5108,7 +5099,7 @@
         <f>ROUNDDOWN(($A21*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B21)</f>
         <v>58</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="4">
         <f>ROUNDDOWN(($A21*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B21)</f>
         <v>57</v>
       </c>
@@ -5124,7 +5115,7 @@
         <f>ROUNDDOWN(($A21*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B21)</f>
         <v>54</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="4">
         <f>ROUNDDOWN(($A21*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B21)</f>
         <v>53</v>
       </c>
@@ -5164,7 +5155,7 @@
         <f>ROUNDDOWN(($A21*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B21)</f>
         <v>49</v>
       </c>
-      <c r="AG21">
+      <c r="AG21" s="4">
         <f>ROUNDDOWN(($A21*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B21)</f>
         <v>49</v>
       </c>
@@ -5316,7 +5307,7 @@
         <f>ROUNDDOWN(($A22*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B22)</f>
         <v>80</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="4">
         <f>ROUNDDOWN(($A22*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B22)</f>
         <v>78</v>
       </c>
@@ -5340,7 +5331,7 @@
         <f>ROUNDDOWN(($A22*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B22)</f>
         <v>69</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="4">
         <f>ROUNDDOWN(($A22*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B22)</f>
         <v>68</v>
       </c>
@@ -5356,7 +5347,7 @@
         <f>ROUNDDOWN(($A22*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B22)</f>
         <v>65</v>
       </c>
-      <c r="W22" s="1">
+      <c r="W22" s="4">
         <f>ROUNDDOWN(($A22*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B22)</f>
         <v>64</v>
       </c>
@@ -5396,7 +5387,7 @@
         <f>ROUNDDOWN(($A22*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B22)</f>
         <v>59</v>
       </c>
-      <c r="AG22" s="1">
+      <c r="AG22" s="4">
         <f>ROUNDDOWN(($A22*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B22)</f>
         <v>59</v>
       </c>
@@ -5545,7 +5536,7 @@
         <f>ROUNDDOWN(($A23*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B23)</f>
         <v>82</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="4">
         <f>ROUNDDOWN(($A23*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B23)</f>
         <v>79</v>
       </c>
@@ -5569,7 +5560,7 @@
         <f>ROUNDDOWN(($A23*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B23)</f>
         <v>70</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="4">
         <f>ROUNDDOWN(($A23*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B23)</f>
         <v>68</v>
       </c>
@@ -5585,7 +5576,7 @@
         <f>ROUNDDOWN(($A23*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B23)</f>
         <v>65</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="4">
         <f>ROUNDDOWN(($A23*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B23)</f>
         <v>64</v>
       </c>
@@ -5625,7 +5616,7 @@
         <f>ROUNDDOWN(($A23*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B23)</f>
         <v>60</v>
       </c>
-      <c r="AG23">
+      <c r="AG23" s="4">
         <f>ROUNDDOWN(($A23*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B23)</f>
         <v>59</v>
       </c>
@@ -5774,7 +5765,7 @@
         <f>ROUNDDOWN(($A24*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B24)</f>
         <v>83</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="4">
         <f>ROUNDDOWN(($A24*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B24)</f>
         <v>80</v>
       </c>
@@ -5798,7 +5789,7 @@
         <f>ROUNDDOWN(($A24*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B24)</f>
         <v>70</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="4">
         <f>ROUNDDOWN(($A24*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B24)</f>
         <v>69</v>
       </c>
@@ -5814,7 +5805,7 @@
         <f>ROUNDDOWN(($A24*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B24)</f>
         <v>66</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="4">
         <f>ROUNDDOWN(($A24*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B24)</f>
         <v>65</v>
       </c>
@@ -5854,7 +5845,7 @@
         <f>ROUNDDOWN(($A24*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B24)</f>
         <v>60</v>
       </c>
-      <c r="AG24">
+      <c r="AG24" s="4">
         <f>ROUNDDOWN(($A24*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B24)</f>
         <v>60</v>
       </c>
@@ -6003,7 +5994,7 @@
         <f>ROUNDDOWN(($A25*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B25)</f>
         <v>84</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="4">
         <f>ROUNDDOWN(($A25*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B25)</f>
         <v>81</v>
       </c>
@@ -6027,7 +6018,7 @@
         <f>ROUNDDOWN(($A25*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B25)</f>
         <v>71</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="4">
         <f>ROUNDDOWN(($A25*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B25)</f>
         <v>70</v>
       </c>
@@ -6043,7 +6034,7 @@
         <f>ROUNDDOWN(($A25*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B25)</f>
         <v>66</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="4">
         <f>ROUNDDOWN(($A25*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B25)</f>
         <v>65</v>
       </c>
@@ -6083,7 +6074,7 @@
         <f>ROUNDDOWN(($A25*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B25)</f>
         <v>60</v>
       </c>
-      <c r="AG25">
+      <c r="AG25" s="4">
         <f>ROUNDDOWN(($A25*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B25)</f>
         <v>60</v>
       </c>
@@ -6232,7 +6223,7 @@
         <f>ROUNDDOWN(($A26*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B26)</f>
         <v>85</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="4">
         <f>ROUNDDOWN(($A26*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B26)</f>
         <v>83</v>
       </c>
@@ -6256,7 +6247,7 @@
         <f>ROUNDDOWN(($A26*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B26)</f>
         <v>72</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="4">
         <f>ROUNDDOWN(($A26*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B26)</f>
         <v>70</v>
       </c>
@@ -6272,7 +6263,7 @@
         <f>ROUNDDOWN(($A26*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B26)</f>
         <v>67</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="4">
         <f>ROUNDDOWN(($A26*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B26)</f>
         <v>66</v>
       </c>
@@ -6312,7 +6303,7 @@
         <f>ROUNDDOWN(($A26*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B26)</f>
         <v>60</v>
       </c>
-      <c r="AG26">
+      <c r="AG26" s="4">
         <f>ROUNDDOWN(($A26*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B26)</f>
         <v>60</v>
       </c>
@@ -6464,7 +6455,7 @@
         <f>ROUNDDOWN(($A27*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B27)</f>
         <v>92</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="4">
         <f>ROUNDDOWN(($A27*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B27)</f>
         <v>89</v>
       </c>
@@ -6488,7 +6479,7 @@
         <f>ROUNDDOWN(($A27*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B27)</f>
         <v>77</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="4">
         <f>ROUNDDOWN(($A27*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B27)</f>
         <v>76</v>
       </c>
@@ -6504,7 +6495,7 @@
         <f>ROUNDDOWN(($A27*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B27)</f>
         <v>72</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="4">
         <f>ROUNDDOWN(($A27*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B27)</f>
         <v>71</v>
       </c>
@@ -6544,7 +6535,7 @@
         <f>ROUNDDOWN(($A27*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B27)</f>
         <v>66</v>
       </c>
-      <c r="AG27">
+      <c r="AG27" s="4">
         <f>ROUNDDOWN(($A27*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B27)</f>
         <v>65</v>
       </c>
@@ -6693,7 +6684,7 @@
         <f>ROUNDDOWN(($A28*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B28)</f>
         <v>93</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="4">
         <f>ROUNDDOWN(($A28*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B28)</f>
         <v>90</v>
       </c>
@@ -6717,7 +6708,7 @@
         <f>ROUNDDOWN(($A28*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B28)</f>
         <v>78</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="4">
         <f>ROUNDDOWN(($A28*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B28)</f>
         <v>77</v>
       </c>
@@ -6733,7 +6724,7 @@
         <f>ROUNDDOWN(($A28*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B28)</f>
         <v>73</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="4">
         <f>ROUNDDOWN(($A28*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B28)</f>
         <v>72</v>
       </c>
@@ -6773,7 +6764,7 @@
         <f>ROUNDDOWN(($A28*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B28)</f>
         <v>66</v>
       </c>
-      <c r="AG28">
+      <c r="AG28" s="4">
         <f>ROUNDDOWN(($A28*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B28)</f>
         <v>66</v>
       </c>
@@ -6922,7 +6913,7 @@
         <f>ROUNDDOWN(($A29*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B29)</f>
         <v>94</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="4">
         <f>ROUNDDOWN(($A29*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B29)</f>
         <v>91</v>
       </c>
@@ -6946,7 +6937,7 @@
         <f>ROUNDDOWN(($A29*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B29)</f>
         <v>79</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="4">
         <f>ROUNDDOWN(($A29*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B29)</f>
         <v>77</v>
       </c>
@@ -6962,7 +6953,7 @@
         <f>ROUNDDOWN(($A29*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B29)</f>
         <v>73</v>
       </c>
-      <c r="W29">
+      <c r="W29" s="4">
         <f>ROUNDDOWN(($A29*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B29)</f>
         <v>72</v>
       </c>
@@ -7002,7 +6993,7 @@
         <f>ROUNDDOWN(($A29*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B29)</f>
         <v>66</v>
       </c>
-      <c r="AG29">
+      <c r="AG29" s="4">
         <f>ROUNDDOWN(($A29*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B29)</f>
         <v>66</v>
       </c>
@@ -7151,7 +7142,7 @@
         <f>ROUNDDOWN(($A30*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B30)</f>
         <v>96</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="4">
         <f>ROUNDDOWN(($A30*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B30)</f>
         <v>92</v>
       </c>
@@ -7175,7 +7166,7 @@
         <f>ROUNDDOWN(($A30*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B30)</f>
         <v>80</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="4">
         <f>ROUNDDOWN(($A30*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B30)</f>
         <v>78</v>
       </c>
@@ -7191,7 +7182,7 @@
         <f>ROUNDDOWN(($A30*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B30)</f>
         <v>74</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="4">
         <f>ROUNDDOWN(($A30*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B30)</f>
         <v>73</v>
       </c>
@@ -7231,7 +7222,7 @@
         <f>ROUNDDOWN(($A30*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B30)</f>
         <v>66</v>
       </c>
-      <c r="AG30">
+      <c r="AG30" s="4">
         <f>ROUNDDOWN(($A30*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B30)</f>
         <v>66</v>
       </c>
@@ -7380,7 +7371,7 @@
         <f>ROUNDDOWN(($A31*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B31)</f>
         <v>97</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="4">
         <f>ROUNDDOWN(($A31*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B31)</f>
         <v>93</v>
       </c>
@@ -7404,7 +7395,7 @@
         <f>ROUNDDOWN(($A31*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B31)</f>
         <v>80</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="4">
         <f>ROUNDDOWN(($A31*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B31)</f>
         <v>79</v>
       </c>
@@ -7420,7 +7411,7 @@
         <f>ROUNDDOWN(($A31*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B31)</f>
         <v>74</v>
       </c>
-      <c r="W31">
+      <c r="W31" s="4">
         <f>ROUNDDOWN(($A31*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B31)</f>
         <v>73</v>
       </c>
@@ -7460,7 +7451,7 @@
         <f>ROUNDDOWN(($A31*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B31)</f>
         <v>67</v>
       </c>
-      <c r="AG31">
+      <c r="AG31" s="4">
         <f>ROUNDDOWN(($A31*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B31)</f>
         <v>66</v>
       </c>
@@ -7612,7 +7603,7 @@
         <f>ROUNDDOWN(($A32*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B32)</f>
         <v>118</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="4">
         <f>ROUNDDOWN(($A32*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B32)</f>
         <v>115</v>
       </c>
@@ -7636,7 +7627,7 @@
         <f>ROUNDDOWN(($A32*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B32)</f>
         <v>101</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="4">
         <f>ROUNDDOWN(($A32*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B32)</f>
         <v>99</v>
       </c>
@@ -7652,7 +7643,7 @@
         <f>ROUNDDOWN(($A32*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B32)</f>
         <v>95</v>
       </c>
-      <c r="W32" s="1">
+      <c r="W32" s="4">
         <f>ROUNDDOWN(($A32*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B32)</f>
         <v>94</v>
       </c>
@@ -7692,7 +7683,7 @@
         <f>ROUNDDOWN(($A32*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B32)</f>
         <v>87</v>
       </c>
-      <c r="AG32" s="1">
+      <c r="AG32" s="4">
         <f>ROUNDDOWN(($A32*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B32)</f>
         <v>87</v>
       </c>
@@ -7841,7 +7832,7 @@
         <f>ROUNDDOWN(($A33*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B33)</f>
         <v>119</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="4">
         <f>ROUNDDOWN(($A33*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B33)</f>
         <v>116</v>
       </c>
@@ -7865,7 +7856,7 @@
         <f>ROUNDDOWN(($A33*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B33)</f>
         <v>102</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="4">
         <f>ROUNDDOWN(($A33*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B33)</f>
         <v>100</v>
       </c>
@@ -7881,7 +7872,7 @@
         <f>ROUNDDOWN(($A33*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B33)</f>
         <v>95</v>
       </c>
-      <c r="W33">
+      <c r="W33" s="4">
         <f>ROUNDDOWN(($A33*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B33)</f>
         <v>94</v>
       </c>
@@ -7921,7 +7912,7 @@
         <f>ROUNDDOWN(($A33*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B33)</f>
         <v>87</v>
       </c>
-      <c r="AG33">
+      <c r="AG33" s="4">
         <f>ROUNDDOWN(($A33*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B33)</f>
         <v>87</v>
       </c>
@@ -8070,7 +8061,7 @@
         <f>ROUNDDOWN(($A34*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B34)</f>
         <v>121</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="4">
         <f>ROUNDDOWN(($A34*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B34)</f>
         <v>117</v>
       </c>
@@ -8094,7 +8085,7 @@
         <f>ROUNDDOWN(($A34*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B34)</f>
         <v>102</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="4">
         <f>ROUNDDOWN(($A34*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B34)</f>
         <v>100</v>
       </c>
@@ -8110,7 +8101,7 @@
         <f>ROUNDDOWN(($A34*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B34)</f>
         <v>96</v>
       </c>
-      <c r="W34">
+      <c r="W34" s="4">
         <f>ROUNDDOWN(($A34*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B34)</f>
         <v>94</v>
       </c>
@@ -8150,7 +8141,7 @@
         <f>ROUNDDOWN(($A34*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B34)</f>
         <v>87</v>
       </c>
-      <c r="AG34">
+      <c r="AG34" s="4">
         <f>ROUNDDOWN(($A34*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B34)</f>
         <v>87</v>
       </c>
@@ -8299,7 +8290,7 @@
         <f>ROUNDDOWN(($A35*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B35)</f>
         <v>122</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="4">
         <f>ROUNDDOWN(($A35*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B35)</f>
         <v>118</v>
       </c>
@@ -8323,7 +8314,7 @@
         <f>ROUNDDOWN(($A35*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B35)</f>
         <v>103</v>
       </c>
-      <c r="S35">
+      <c r="S35" s="4">
         <f>ROUNDDOWN(($A35*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B35)</f>
         <v>101</v>
       </c>
@@ -8339,7 +8330,7 @@
         <f>ROUNDDOWN(($A35*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B35)</f>
         <v>96</v>
       </c>
-      <c r="W35">
+      <c r="W35" s="4">
         <f>ROUNDDOWN(($A35*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B35)</f>
         <v>95</v>
       </c>
@@ -8379,7 +8370,7 @@
         <f>ROUNDDOWN(($A35*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B35)</f>
         <v>88</v>
       </c>
-      <c r="AG35">
+      <c r="AG35" s="4">
         <f>ROUNDDOWN(($A35*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B35)</f>
         <v>87</v>
       </c>
@@ -8528,7 +8519,7 @@
         <f>ROUNDDOWN(($A36*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B36)</f>
         <v>123</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="4">
         <f>ROUNDDOWN(($A36*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B36)</f>
         <v>119</v>
       </c>
@@ -8552,7 +8543,7 @@
         <f>ROUNDDOWN(($A36*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B36)</f>
         <v>104</v>
       </c>
-      <c r="S36">
+      <c r="S36" s="4">
         <f>ROUNDDOWN(($A36*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B36)</f>
         <v>102</v>
       </c>
@@ -8568,7 +8559,7 @@
         <f>ROUNDDOWN(($A36*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B36)</f>
         <v>97</v>
       </c>
-      <c r="W36">
+      <c r="W36" s="4">
         <f>ROUNDDOWN(($A36*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B36)</f>
         <v>95</v>
       </c>
@@ -8608,7 +8599,7 @@
         <f>ROUNDDOWN(($A36*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B36)</f>
         <v>88</v>
       </c>
-      <c r="AG36">
+      <c r="AG36" s="4">
         <f>ROUNDDOWN(($A36*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B36)</f>
         <v>87</v>
       </c>
@@ -8760,7 +8751,7 @@
         <f>ROUNDDOWN(($A37*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B37)</f>
         <v>135</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="4">
         <f>ROUNDDOWN(($A37*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B37)</f>
         <v>130</v>
       </c>
@@ -8784,7 +8775,7 @@
         <f>ROUNDDOWN(($A37*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B37)</f>
         <v>115</v>
       </c>
-      <c r="S37">
+      <c r="S37" s="4">
         <f>ROUNDDOWN(($A37*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B37)</f>
         <v>112</v>
       </c>
@@ -8800,7 +8791,7 @@
         <f>ROUNDDOWN(($A37*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B37)</f>
         <v>107</v>
       </c>
-      <c r="W37">
+      <c r="W37" s="4">
         <f>ROUNDDOWN(($A37*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B37)</f>
         <v>106</v>
       </c>
@@ -8840,7 +8831,7 @@
         <f>ROUNDDOWN(($A37*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B37)</f>
         <v>98</v>
       </c>
-      <c r="AG37">
+      <c r="AG37" s="4">
         <f>ROUNDDOWN(($A37*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B37)</f>
         <v>98</v>
       </c>
@@ -8989,7 +8980,7 @@
         <f>ROUNDDOWN(($A38*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B38)</f>
         <v>136</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="4">
         <f>ROUNDDOWN(($A38*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B38)</f>
         <v>132</v>
       </c>
@@ -9013,7 +9004,7 @@
         <f>ROUNDDOWN(($A38*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B38)</f>
         <v>115</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="4">
         <f>ROUNDDOWN(($A38*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B38)</f>
         <v>113</v>
       </c>
@@ -9029,7 +9020,7 @@
         <f>ROUNDDOWN(($A38*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B38)</f>
         <v>108</v>
       </c>
-      <c r="W38">
+      <c r="W38" s="4">
         <f>ROUNDDOWN(($A38*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B38)</f>
         <v>106</v>
       </c>
@@ -9069,7 +9060,7 @@
         <f>ROUNDDOWN(($A38*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B38)</f>
         <v>98</v>
       </c>
-      <c r="AG38">
+      <c r="AG38" s="4">
         <f>ROUNDDOWN(($A38*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B38)</f>
         <v>98</v>
       </c>
@@ -9218,7 +9209,7 @@
         <f>ROUNDDOWN(($A39*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B39)</f>
         <v>137</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="4">
         <f>ROUNDDOWN(($A39*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B39)</f>
         <v>133</v>
       </c>
@@ -9242,7 +9233,7 @@
         <f>ROUNDDOWN(($A39*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B39)</f>
         <v>116</v>
       </c>
-      <c r="S39">
+      <c r="S39" s="4">
         <f>ROUNDDOWN(($A39*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B39)</f>
         <v>114</v>
       </c>
@@ -9258,7 +9249,7 @@
         <f>ROUNDDOWN(($A39*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B39)</f>
         <v>108</v>
       </c>
-      <c r="W39">
+      <c r="W39" s="4">
         <f>ROUNDDOWN(($A39*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B39)</f>
         <v>107</v>
       </c>
@@ -9298,7 +9289,7 @@
         <f>ROUNDDOWN(($A39*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B39)</f>
         <v>99</v>
       </c>
-      <c r="AG39">
+      <c r="AG39" s="4">
         <f>ROUNDDOWN(($A39*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B39)</f>
         <v>98</v>
       </c>
@@ -9447,7 +9438,7 @@
         <f>ROUNDDOWN(($A40*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B40)</f>
         <v>138</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="4">
         <f>ROUNDDOWN(($A40*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B40)</f>
         <v>134</v>
       </c>
@@ -9471,7 +9462,7 @@
         <f>ROUNDDOWN(($A40*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B40)</f>
         <v>117</v>
       </c>
-      <c r="S40">
+      <c r="S40" s="4">
         <f>ROUNDDOWN(($A40*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B40)</f>
         <v>114</v>
       </c>
@@ -9487,7 +9478,7 @@
         <f>ROUNDDOWN(($A40*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B40)</f>
         <v>109</v>
       </c>
-      <c r="W40">
+      <c r="W40" s="4">
         <f>ROUNDDOWN(($A40*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B40)</f>
         <v>107</v>
       </c>
@@ -9527,7 +9518,7 @@
         <f>ROUNDDOWN(($A40*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B40)</f>
         <v>99</v>
       </c>
-      <c r="AG40">
+      <c r="AG40" s="4">
         <f>ROUNDDOWN(($A40*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B40)</f>
         <v>98</v>
       </c>
@@ -9676,7 +9667,7 @@
         <f>ROUNDDOWN(($A41*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B41)</f>
         <v>140</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="4">
         <f>ROUNDDOWN(($A41*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B41)</f>
         <v>135</v>
       </c>
@@ -9700,7 +9691,7 @@
         <f>ROUNDDOWN(($A41*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B41)</f>
         <v>118</v>
       </c>
-      <c r="S41">
+      <c r="S41" s="4">
         <f>ROUNDDOWN(($A41*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B41)</f>
         <v>115</v>
       </c>
@@ -9716,7 +9707,7 @@
         <f>ROUNDDOWN(($A41*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B41)</f>
         <v>109</v>
       </c>
-      <c r="W41">
+      <c r="W41" s="4">
         <f>ROUNDDOWN(($A41*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B41)</f>
         <v>108</v>
       </c>
@@ -9756,7 +9747,7 @@
         <f>ROUNDDOWN(($A41*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B41)</f>
         <v>99</v>
       </c>
-      <c r="AG41">
+      <c r="AG41" s="4">
         <f>ROUNDDOWN(($A41*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B41)</f>
         <v>99</v>
       </c>
@@ -9908,7 +9899,7 @@
         <f>ROUNDDOWN(($A42*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B42)</f>
         <v>156</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="4">
         <f>ROUNDDOWN(($A42*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B42)</f>
         <v>151</v>
       </c>
@@ -9932,7 +9923,7 @@
         <f>ROUNDDOWN(($A42*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B42)</f>
         <v>133</v>
       </c>
-      <c r="S42">
+      <c r="S42" s="4">
         <f>ROUNDDOWN(($A42*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B42)</f>
         <v>131</v>
       </c>
@@ -9948,7 +9939,7 @@
         <f>ROUNDDOWN(($A42*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B42)</f>
         <v>125</v>
       </c>
-      <c r="W42">
+      <c r="W42" s="4">
         <f>ROUNDDOWN(($A42*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B42)</f>
         <v>123</v>
       </c>
@@ -9988,7 +9979,7 @@
         <f>ROUNDDOWN(($A42*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B42)</f>
         <v>114</v>
       </c>
-      <c r="AG42">
+      <c r="AG42" s="4">
         <f>ROUNDDOWN(($A42*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B42)</f>
         <v>114</v>
       </c>
@@ -10137,7 +10128,7 @@
         <f>ROUNDDOWN(($A43*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B43)</f>
         <v>157</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="4">
         <f>ROUNDDOWN(($A43*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B43)</f>
         <v>152</v>
       </c>
@@ -10161,7 +10152,7 @@
         <f>ROUNDDOWN(($A43*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B43)</f>
         <v>134</v>
       </c>
-      <c r="S43">
+      <c r="S43" s="4">
         <f>ROUNDDOWN(($A43*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B43)</f>
         <v>131</v>
       </c>
@@ -10177,7 +10168,7 @@
         <f>ROUNDDOWN(($A43*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B43)</f>
         <v>125</v>
       </c>
-      <c r="W43">
+      <c r="W43" s="4">
         <f>ROUNDDOWN(($A43*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B43)</f>
         <v>124</v>
       </c>
@@ -10217,7 +10208,7 @@
         <f>ROUNDDOWN(($A43*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B43)</f>
         <v>115</v>
       </c>
-      <c r="AG43">
+      <c r="AG43" s="4">
         <f>ROUNDDOWN(($A43*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B43)</f>
         <v>114</v>
       </c>
@@ -10366,7 +10357,7 @@
         <f>ROUNDDOWN(($A44*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B44)</f>
         <v>159</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="4">
         <f>ROUNDDOWN(($A44*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B44)</f>
         <v>154</v>
       </c>
@@ -10390,7 +10381,7 @@
         <f>ROUNDDOWN(($A44*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B44)</f>
         <v>135</v>
       </c>
-      <c r="S44">
+      <c r="S44" s="4">
         <f>ROUNDDOWN(($A44*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B44)</f>
         <v>132</v>
       </c>
@@ -10406,7 +10397,7 @@
         <f>ROUNDDOWN(($A44*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B44)</f>
         <v>126</v>
       </c>
-      <c r="W44">
+      <c r="W44" s="4">
         <f>ROUNDDOWN(($A44*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B44)</f>
         <v>124</v>
       </c>
@@ -10446,7 +10437,7 @@
         <f>ROUNDDOWN(($A44*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B44)</f>
         <v>115</v>
       </c>
-      <c r="AG44">
+      <c r="AG44" s="4">
         <f>ROUNDDOWN(($A44*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B44)</f>
         <v>114</v>
       </c>
@@ -10595,7 +10586,7 @@
         <f>ROUNDDOWN(($A45*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B45)</f>
         <v>160</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="4">
         <f>ROUNDDOWN(($A45*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B45)</f>
         <v>155</v>
       </c>
@@ -10619,7 +10610,7 @@
         <f>ROUNDDOWN(($A45*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B45)</f>
         <v>135</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="4">
         <f>ROUNDDOWN(($A45*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B45)</f>
         <v>133</v>
       </c>
@@ -10635,7 +10626,7 @@
         <f>ROUNDDOWN(($A45*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B45)</f>
         <v>126</v>
       </c>
-      <c r="W45">
+      <c r="W45" s="4">
         <f>ROUNDDOWN(($A45*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B45)</f>
         <v>125</v>
       </c>
@@ -10675,7 +10666,7 @@
         <f>ROUNDDOWN(($A45*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B45)</f>
         <v>115</v>
       </c>
-      <c r="AG45">
+      <c r="AG45" s="4">
         <f>ROUNDDOWN(($A45*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B45)</f>
         <v>115</v>
       </c>
@@ -10824,7 +10815,7 @@
         <f>ROUNDDOWN(($A46*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B46)</f>
         <v>161</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="4">
         <f>ROUNDDOWN(($A46*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B46)</f>
         <v>156</v>
       </c>
@@ -10848,7 +10839,7 @@
         <f>ROUNDDOWN(($A46*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B46)</f>
         <v>136</v>
       </c>
-      <c r="S46">
+      <c r="S46" s="4">
         <f>ROUNDDOWN(($A46*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B46)</f>
         <v>133</v>
       </c>
@@ -10864,7 +10855,7 @@
         <f>ROUNDDOWN(($A46*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B46)</f>
         <v>127</v>
       </c>
-      <c r="W46">
+      <c r="W46" s="4">
         <f>ROUNDDOWN(($A46*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B46)</f>
         <v>125</v>
       </c>
@@ -10904,7 +10895,7 @@
         <f>ROUNDDOWN(($A46*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B46)</f>
         <v>115</v>
       </c>
-      <c r="AG46">
+      <c r="AG46" s="4">
         <f>ROUNDDOWN(($A46*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B46)</f>
         <v>115</v>
       </c>
@@ -11056,7 +11047,7 @@
         <f>ROUNDDOWN(($A47*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B47)</f>
         <v>173</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="4">
         <f>ROUNDDOWN(($A47*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B47)</f>
         <v>167</v>
       </c>
@@ -11080,7 +11071,7 @@
         <f>ROUNDDOWN(($A47*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B47)</f>
         <v>147</v>
       </c>
-      <c r="S47">
+      <c r="S47" s="4">
         <f>ROUNDDOWN(($A47*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B47)</f>
         <v>144</v>
       </c>
@@ -11096,7 +11087,7 @@
         <f>ROUNDDOWN(($A47*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B47)</f>
         <v>137</v>
       </c>
-      <c r="W47">
+      <c r="W47" s="4">
         <f>ROUNDDOWN(($A47*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B47)</f>
         <v>136</v>
       </c>
@@ -11136,7 +11127,7 @@
         <f>ROUNDDOWN(($A47*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B47)</f>
         <v>126</v>
       </c>
-      <c r="AG47">
+      <c r="AG47" s="4">
         <f>ROUNDDOWN(($A47*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B47)</f>
         <v>125</v>
       </c>
@@ -11285,7 +11276,7 @@
         <f>ROUNDDOWN(($A48*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B48)</f>
         <v>174</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="4">
         <f>ROUNDDOWN(($A48*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B48)</f>
         <v>168</v>
       </c>
@@ -11309,7 +11300,7 @@
         <f>ROUNDDOWN(($A48*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B48)</f>
         <v>148</v>
       </c>
-      <c r="S48">
+      <c r="S48" s="4">
         <f>ROUNDDOWN(($A48*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B48)</f>
         <v>145</v>
       </c>
@@ -11325,7 +11316,7 @@
         <f>ROUNDDOWN(($A48*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B48)</f>
         <v>138</v>
       </c>
-      <c r="W48">
+      <c r="W48" s="4">
         <f>ROUNDDOWN(($A48*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B48)</f>
         <v>136</v>
       </c>
@@ -11365,7 +11356,7 @@
         <f>ROUNDDOWN(($A48*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B48)</f>
         <v>126</v>
       </c>
-      <c r="AG48">
+      <c r="AG48" s="4">
         <f>ROUNDDOWN(($A48*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B48)</f>
         <v>125</v>
       </c>
@@ -11514,7 +11505,7 @@
         <f>ROUNDDOWN(($A49*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B49)</f>
         <v>175</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="4">
         <f>ROUNDDOWN(($A49*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B49)</f>
         <v>169</v>
       </c>
@@ -11538,7 +11529,7 @@
         <f>ROUNDDOWN(($A49*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B49)</f>
         <v>148</v>
       </c>
-      <c r="S49">
+      <c r="S49" s="4">
         <f>ROUNDDOWN(($A49*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B49)</f>
         <v>145</v>
       </c>
@@ -11554,7 +11545,7 @@
         <f>ROUNDDOWN(($A49*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B49)</f>
         <v>138</v>
       </c>
-      <c r="W49">
+      <c r="W49" s="4">
         <f>ROUNDDOWN(($A49*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B49)</f>
         <v>136</v>
       </c>
@@ -11594,7 +11585,7 @@
         <f>ROUNDDOWN(($A49*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B49)</f>
         <v>126</v>
       </c>
-      <c r="AG49">
+      <c r="AG49" s="4">
         <f>ROUNDDOWN(($A49*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B49)</f>
         <v>125</v>
       </c>
@@ -11743,7 +11734,7 @@
         <f>ROUNDDOWN(($A50*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B50)</f>
         <v>176</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="4">
         <f>ROUNDDOWN(($A50*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B50)</f>
         <v>171</v>
       </c>
@@ -11767,7 +11758,7 @@
         <f>ROUNDDOWN(($A50*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B50)</f>
         <v>149</v>
       </c>
-      <c r="S50">
+      <c r="S50" s="4">
         <f>ROUNDDOWN(($A50*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B50)</f>
         <v>146</v>
       </c>
@@ -11783,7 +11774,7 @@
         <f>ROUNDDOWN(($A50*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B50)</f>
         <v>139</v>
       </c>
-      <c r="W50">
+      <c r="W50" s="4">
         <f>ROUNDDOWN(($A50*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B50)</f>
         <v>137</v>
       </c>
@@ -11823,7 +11814,7 @@
         <f>ROUNDDOWN(($A50*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B50)</f>
         <v>126</v>
       </c>
-      <c r="AG50">
+      <c r="AG50" s="4">
         <f>ROUNDDOWN(($A50*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B50)</f>
         <v>126</v>
       </c>
@@ -11972,7 +11963,7 @@
         <f>ROUNDDOWN(($A51*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B51)</f>
         <v>178</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="4">
         <f>ROUNDDOWN(($A51*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B51)</f>
         <v>172</v>
       </c>
@@ -11996,7 +11987,7 @@
         <f>ROUNDDOWN(($A51*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B51)</f>
         <v>150</v>
       </c>
-      <c r="S51">
+      <c r="S51" s="4">
         <f>ROUNDDOWN(($A51*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B51)</f>
         <v>147</v>
       </c>
@@ -12012,7 +12003,7 @@
         <f>ROUNDDOWN(($A51*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B51)</f>
         <v>139</v>
       </c>
-      <c r="W51">
+      <c r="W51" s="4">
         <f>ROUNDDOWN(($A51*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B51)</f>
         <v>137</v>
       </c>
@@ -12052,7 +12043,7 @@
         <f>ROUNDDOWN(($A51*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B51)</f>
         <v>127</v>
       </c>
-      <c r="AG51">
+      <c r="AG51" s="4">
         <f>ROUNDDOWN(($A51*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B51)</f>
         <v>126</v>
       </c>
@@ -12204,7 +12195,7 @@
         <f>ROUNDDOWN(($A52*700)/ROUNDDOWN((L$1*L$1+100)*3,0),0)+SUM($B$2:$B52)</f>
         <v>209</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="4">
         <f>ROUNDDOWN(($A52*700)/ROUNDDOWN((M$1*M$1+100)*3,0),0)+SUM($B$2:$B52)</f>
         <v>203</v>
       </c>
@@ -12228,7 +12219,7 @@
         <f>ROUNDDOWN(($A52*700)/ROUNDDOWN((R$1*R$1+100)*3,0),0)+SUM($B$2:$B52)</f>
         <v>180</v>
       </c>
-      <c r="S52">
+      <c r="S52" s="4">
         <f>ROUNDDOWN(($A52*700)/ROUNDDOWN((S$1*S$1+100)*3,0),0)+SUM($B$2:$B52)</f>
         <v>177</v>
       </c>
@@ -12244,7 +12235,7 @@
         <f>ROUNDDOWN(($A52*700)/ROUNDDOWN((V$1*V$1+100)*3,0),0)+SUM($B$2:$B52)</f>
         <v>170</v>
       </c>
-      <c r="W52">
+      <c r="W52" s="4">
         <f>ROUNDDOWN(($A52*700)/ROUNDDOWN((W$1*W$1+100)*3,0),0)+SUM($B$2:$B52)</f>
         <v>168</v>
       </c>
@@ -12284,7 +12275,7 @@
         <f>ROUNDDOWN(($A52*700)/ROUNDDOWN((AF$1*AF$1+100)*3,0),0)+SUM($B$2:$B52)</f>
         <v>157</v>
       </c>
-      <c r="AG52">
+      <c r="AG52" s="4">
         <f>ROUNDDOWN(($A52*700)/ROUNDDOWN((AG$1*AG$1+100)*3,0),0)+SUM($B$2:$B52)</f>
         <v>156</v>
       </c>
